--- a/MLB Stats 2012-2023 Combined.xlsx
+++ b/MLB Stats 2012-2023 Combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riley\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E618B4DA-E2A2-401D-B886-BED46597C9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB482BA-83DF-4276-B935-8264DF9A1F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5AA8BFC9-5B3F-5440-98CC-72184C77366C}"/>
   </bookViews>
@@ -1113,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B839D18-30BD-DD4B-A41D-38915BAA03B5}">
   <dimension ref="A1:X331"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC50" sqref="AC50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="3">
         <v>2012</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" s="3">
         <v>2012</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X59" s="3">
         <v>2013</v>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>2013</v>
